--- a/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
+++ b/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="786">
   <si>
     <t>Parcel Delivery</t>
   </si>
@@ -271,9 +271,6 @@
     <t>1000 years, the End of Lamentation</t>
   </si>
   <si>
-    <t>Power of Darkness</t>
-  </si>
-  <si>
     <t>For a Sleepless Deadman</t>
   </si>
   <si>
@@ -1613,6 +1610,768 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Primal_Mother,_Istina</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Extreme_Challenge:_Primal_Mother_Resurrected</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Legendary_Tales</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/1000_years,_the_End_of_Lamentation</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Completely_Lost</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Villain_of_the_Underground_Mine,_Teredor</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Precious_Research_Material</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Stuffed_Ancient_Heroes</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/We_Are_Friends</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Placing_My_Small_Power</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Be_Lost_in_the_Mysterious_Scent</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Suspicious_Gardener</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Waiting_for_the_Summer</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Plain_Mission</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Another_Legacy_of_Cruma_Tower</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Shadow_Helper</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Recertification_of_Value</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Intended_Tactic</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/In_Nomine_Patris</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Kicking_Out_Unwelcome_Guests</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Brothers_Bound_in_Chains</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Blood_Offering</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Blade_Under_Foot</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Four_Goblets</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Seductive_Whispers</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Great_Pirate_Zaken%27s_Treasure</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Leona_Blackbird%27s_Treasure</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Queen_Beora%27s_Legacy</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Gladiator%27s_Treasure</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/High_Priest%27s_Treasure</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Turek_Orc%27s_Treasure</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Light_within_the_Darkness</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Hope_within_the_Darkness</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Seven_Flowers</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Liberating_the_Spirits</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Uncover_the_Secret</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Reacting_to_a_Crisis</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Fallen_King%27s_Men</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Dwarven_Nightmare_Continues</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Assisting_the_Golden_Ram_Army</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/An_Ominous_Request</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Daunting_Task</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Weakening_the_Varka_Silenos_Forces</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Weakening_the_Ketra_Orc_Forces</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Banishing_Evil</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Terror_of_Town</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Truth_Concealed_in_Beauty</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Maintaining_the_Field_Business</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Partaking_in_the_Purification_Campaign</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Purifying_Souls</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Retrieving_the_Chaos_Fragment</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Slay_Dark_Lord_Ekimus</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Slay%20Dark%20Lord%20Tiat</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Operation_Roaring_Flame</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Utilize_the_Darkness_-_Seed_of_Destruction</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Utilize_the_Darkness_-_Seed_of_Infinity</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Utilize_the_Darkness_-_Seed_of_Annihilation</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Utilize_the_Darkness_-_Seed_of_Hellfire</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Vestige_of_the_Magic_Power</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Quiet_Killer</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Suspicious_Ingredient</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Awaiting_the_Voice_of_the_Gods</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Role_of_a_Watcher</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Waiting_for_Pa%27agrio</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Obtaining_Ferin%27s_Trust</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Plans_to_Repair_the_Stronghold</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Black_Atelia_Research</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Disappeared_Race,_New_Fairy</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Attack_the_Command_Post</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/In_Search_of_the_Secret_Weapon</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Einhasad%27s_Order</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Eva%27s_Blessing</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Maphr%27s_Salvation</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Way_of_the_Giant%27s_Pawn</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Sayha%27s_Scheme</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Devil%27s_Treasure,_Tauti</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Against_Dragonclaw</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Pitiable_Melisa</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Grand_Opening!_Come_to_Our_Tavern!</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Shadow_of_Terror:_Blackish_Red_Fog</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Unsettling_Shadow_and_Rumors</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Crossroads_between_Light_and_Darkness</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/For_the_Forgotten_Heroes</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Unstoppable_Futile_Efforts</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Corrupted_Leader</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Corrupted_Leader:_His_Truth</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Creation_of_Twisted_Spiral</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Peaceful_Days_are_Over</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Abandoned_God%27s_Creature</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/To_the_Prison_of_Darkness</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Undecaying_Memory_of_the_Past</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Orbis%27_Witch</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Decaying_Darkness_(quest)</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Fighting_the_Forgotten</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Owner_of_Hall</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Legacy_of_Cruma_Tower</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Certification_of_Value</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Resurrected_Owner_of_Hall</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Altar_of_Blood_that_Awakens_Destruction</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Noblesse,_Soul_Testing</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Menacing_Times</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Grasp_Thy_Power</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Purgatory_Volvere</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/That_Place_Succubus</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Succubus_Disciples</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Bloody_Good_Time</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Invaded_Execution_Grounds</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Weeding_Work</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/An_Uninvited_Guest</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Executioner%27s_Execution</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Soulless_One</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Suspicious_Helper</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Failure_and_its_Consequences</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Mutual_Benefit</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Not_a_Traitor</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Suspicious_Badge</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Alphabet_of_the_Giants</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Nowhere_to_Turn</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Guardian_Giant</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Kartia%27s_Seed</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Before_Darkness_Bears_Fruit</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Suspicious_Vagabond_in_the_Swamp</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Embryo_in_the_Swamp_of_Screams</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Suspicious_Vagabond_in_the_Forest</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Embryo_in_the_Forest_of_the_Dead</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/In_Search_of_the_Eye_of_Argos</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Daimon_the_White-eyed</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Kekropus%27_Letter:_Kampf%27s_Whereabouts</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Varka_Silenos_Supporters</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Assassination_of_the_Varka_Silenos_Commander</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Assassination_of_the_Varka_Silenos_Chief</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Kekropus%27_Letter:_Belos%27_Whereabouts</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Ketra_Orc_Supporters</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Assassination_of_the_Ketra_Orc_Commander</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Assassination_of_the_Ketra_Orc_Chief</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Kekropus%27_Letter:_Tracking_the_Evil</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Seal_of_Punishment:_Den_of_Evil</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Chasing_Varangka</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Kekropus%27_Letter:_Regarding_a_Seal</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Seal_of_Punishment:_Sel_Mahum_Training_Grounds</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Chasing_Keltron</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Kekropus%27_Letter:_The_Origins_of_a_Rumor</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Seal_of_Punishment:_Plains_of_the_Lizardmen</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Chasing_Loygen</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Seal_of_Punishment:_The_Fields</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Chasing_Meccadan</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Annihilated_Plains_-_1</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Annihilated_Plains_-_2</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Origin_of_Monsters</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/An_Impending_Threat</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Hit_and_Run</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Timing_is_Everything</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Dark_Ambition</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Is_it_Edible</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Elikia%27s_Letter</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Operation:_Rescue</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Kefensis%27_Hallucination</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/To_the_Desert_Quarry</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Sick_Ambition</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Return_of_the_Alligator_Hunter</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Tapping_the_Power_Within</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Temper_a_Rusting_Blade</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Be_Prepared_for_Anything</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Diana%27s_Request</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Road_to_Destruction</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Road_to_Infinity</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Bottle_of_Istina%27s_Soul</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Bottle_of_Octavis%27_Soul</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Bottle_of_Tauti%27s_Soul</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Flames_of_Sorrow</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Strengthen_the_Barrier</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Stolen_Seed</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Life_Energy_Repository</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Minstrel%27s_Song,_Part_1</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Bloody_Swampland</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Seed_of_Annihilation</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Harnak_Underground_Ruins</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Kartia%27s_Labyrinth</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Minstrel%27s_Song,_Part_2</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Fairy_Settlement</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Minstrel%27s_Song,_Part_3</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Prison_of_Darkness</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Fortuna</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Minstrel%27s_Song,_Part_4</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Isle_of_Souls</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Nornil%27s_Cave</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Minstrel%27s_Song,_Part_5</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Seal_of_Shilen</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Cemetery</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Guillotine_Fortress</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Orbis_Temple</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Minstrel%27s_Song,_Part_6</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Pagan_Temple</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Mysterious_Suggestion_-_1</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Mysterious_Suggestion_-_2</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Winds_of_Fate:_A_Promise</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Winds_of_Fate:_Choices</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Whole_New_Level_of_Alchemy</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Letters_from_the_Queen:_Cruma_Tower,_Part_2</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Wrath_of_the_Giants</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Reports_from_Cruma_Tower,_Part_2</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Letters_from_the_Queen:_Sea_of_Spores</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Weakened_Barrier</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Ingredients_to_Enforcements</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Traces_of_an_Ambush</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Broken_Device</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Resident_Problem_Solver</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/A_Spy_Mission</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Save_the_Souls</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Investigate_the_Forest</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Eye_that_Defied_the_Gods</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Crossing_Fate</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Letters_from_the_Queen:_Dragon_Valley</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Strange_Things_Afoot_in_the_Valley</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Reconnaissance_at_Dragon_Valley</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Dimensional_Warp,_Part_1</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Dimensional_Warp,_Part_2</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Dimensional_Warp,_Part_3</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Dimensional_Warp,_Part_4</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Dimensional_Warp,_Part_5</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Dimensional_Warp,_Part_6</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Dimensional_Warp,_Part_7</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Hero%27s_Journey:_Blazing_Swamp</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Exalted,_One_Who_Faces_the_Limit</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Facing_Sadness</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/For_Glory</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Befitting_of_the_Status</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Step_Up</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Exalted,_One_Who_Overcomes_the_Limit</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Confronting_a_Giant_Monster</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/For_Honor</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Relationships_Befitting_of_the_Status</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Helping_Others</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Exalted,_One_Who_Shatters_the_Limit</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Confronting_the_Greatest_Danger</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/For_Victory</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Luck_Befitting_of_the_Status</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Step_Up_to_Lead</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/In_Search_of_the_Cause</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Lost_Garden_of_Spirits</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Unbelievable_Sight</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Energy_of_Sadness_and_Anger</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Put_the_Queen_of_Spirits_to_Sleep</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Disappeared_Clan_Member</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Looking_for_the_Blackbird_Clan_Member</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/The_Reason_For_Not_Being_Able_to_Get_Out</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Blackbird%27s_Name_Value</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Time_to_Recover</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Deep_Inside_Atelia_Fortress</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Anomaly_in_the_Enchanted_Valley</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Bloody_Battle_-_Seizing_Supplies</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Bloody_Battle_-_Rescue_the_Smiths</t>
+  </si>
+  <si>
+    <t>https://l2wiki.com/Bloody_Battle_-_Meeting_the_Commander</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -1988,10 +2747,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Φύλλο1"/>
-  <dimension ref="A1:D531"/>
+  <dimension ref="A1:E530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2000,44 +2759,47 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5">
+      <c r="C1" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="3">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>275</v>
       </c>
-      <c r="D2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <f>100-(C2*100)/530</f>
-        <v>48.113207547169814</v>
-      </c>
-      <c r="D3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="5">
+        <f>(D2*100)/529</f>
+        <v>51.984877126654062</v>
+      </c>
+      <c r="E3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>16</v>
       </c>
@@ -2045,7 +2807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>17</v>
       </c>
@@ -2053,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>19</v>
       </c>
@@ -2061,7 +2823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2069,7 +2831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>26</v>
       </c>
@@ -2077,7 +2839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -2085,7 +2847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>32</v>
       </c>
@@ -2093,7 +2855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>33</v>
       </c>
@@ -2101,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>34</v>
       </c>
@@ -2109,7 +2871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>35</v>
       </c>
@@ -2117,7 +2879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>36</v>
       </c>
@@ -2125,7 +2887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>37</v>
       </c>
@@ -2133,7 +2895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>38</v>
       </c>
@@ -2397,7 +3159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3">
         <v>144</v>
       </c>
@@ -2405,7 +3167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" s="3">
         <v>146</v>
       </c>
@@ -2413,23 +3175,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>149</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>150</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="3">
         <v>177</v>
       </c>
@@ -2437,7 +3205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3">
         <v>180</v>
       </c>
@@ -2445,7 +3213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" s="3">
         <v>181</v>
       </c>
@@ -2453,7 +3221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" s="3">
         <v>183</v>
       </c>
@@ -2461,7 +3229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" s="3">
         <v>184</v>
       </c>
@@ -2469,7 +3237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" s="3">
         <v>185</v>
       </c>
@@ -2477,7 +3245,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" s="3">
         <v>186</v>
       </c>
@@ -2485,7 +3253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" s="3">
         <v>187</v>
       </c>
@@ -2493,7 +3261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3">
         <v>188</v>
       </c>
@@ -2501,7 +3269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" s="3">
         <v>189</v>
       </c>
@@ -2509,7 +3277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" s="3">
         <v>190</v>
       </c>
@@ -2517,7 +3285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" s="3">
         <v>191</v>
       </c>
@@ -2525,7 +3293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" s="3">
         <v>192</v>
       </c>
@@ -2533,7 +3301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" s="3">
         <v>193</v>
       </c>
@@ -2541,7 +3309,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" s="3">
         <v>194</v>
       </c>
@@ -2549,7 +3317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" s="3">
         <v>195</v>
       </c>
@@ -2557,7 +3325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" s="3">
         <v>196</v>
       </c>
@@ -2565,7 +3333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" s="3">
         <v>197</v>
       </c>
@@ -2573,7 +3341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" s="3">
         <v>198</v>
       </c>
@@ -2581,7 +3349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" s="3">
         <v>210</v>
       </c>
@@ -2589,7 +3357,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" s="3">
         <v>237</v>
       </c>
@@ -2597,7 +3365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" s="3">
         <v>238</v>
       </c>
@@ -2605,7 +3373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" s="3">
         <v>239</v>
       </c>
@@ -2613,7 +3381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" s="3">
         <v>240</v>
       </c>
@@ -2621,7 +3389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" s="3">
         <v>245</v>
       </c>
@@ -2629,15 +3397,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>254</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="3">
         <v>270</v>
       </c>
@@ -2645,7 +3416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" s="3">
         <v>278</v>
       </c>
@@ -2653,7 +3424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" s="3">
         <v>298</v>
       </c>
@@ -2661,7 +3432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" s="3">
         <v>307</v>
       </c>
@@ -2669,7 +3440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" s="3">
         <v>310</v>
       </c>
@@ -2677,7 +3448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" s="3">
         <v>336</v>
       </c>
@@ -2685,7 +3456,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" s="3">
         <v>337</v>
       </c>
@@ -2693,1241 +3464,1466 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>344</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1">
-        <v>353</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C86" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3">
+        <v>359</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" s="3">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" s="3">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" s="3">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" s="3">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" s="3">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" s="3">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94" s="3">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" s="3">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3">
       <c r="A96" s="3">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" s="3">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" s="3">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3">
       <c r="A99" s="3">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" s="3">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" s="3">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102" s="3">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3">
-        <v>453</v>
-      </c>
-      <c r="B103" s="3" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>454</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1">
-        <v>454</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="C103" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3">
+        <v>455</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3">
       <c r="A105" s="3">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3">
       <c r="A106" s="3">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3">
       <c r="A107" s="3">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="3">
-        <v>458</v>
-      </c>
-      <c r="B108" s="3" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>459</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1">
-        <v>462</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C110" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3">
+        <v>463</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3">
       <c r="A112" s="3">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="3">
-        <v>464</v>
-      </c>
-      <c r="B113" s="3" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>465</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1">
-        <v>469</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="C116" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="3">
+        <v>470</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3">
       <c r="A118" s="3">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3">
       <c r="A119" s="3">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3">
       <c r="A120" s="3">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="3">
-        <v>473</v>
-      </c>
-      <c r="B121" s="3" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>474</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1">
-        <v>483</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="C126" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3">
+        <v>485</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:3">
       <c r="A128" s="3">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:3">
       <c r="A129" s="3">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:3">
       <c r="A130" s="3">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="3">
-        <v>490</v>
-      </c>
-      <c r="B131" s="3" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>491</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1">
-        <v>491</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="C131" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="3">
+        <v>492</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="3">
-        <v>492</v>
-      </c>
-      <c r="B133" s="3" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>493</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1">
-        <v>493</v>
-      </c>
-      <c r="B134" s="1" t="s">
+      <c r="C133" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="3">
+        <v>494</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:3">
       <c r="A135" s="3">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:3">
       <c r="A136" s="3">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:3">
       <c r="A137" s="3">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:3">
       <c r="A138" s="3">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:3">
       <c r="A139" s="3">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="3">
-        <v>499</v>
-      </c>
-      <c r="B140" s="3" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>500</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1">
-        <v>500</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="C140" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="3">
+        <v>501</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:3">
       <c r="A142" s="3">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:3">
       <c r="A143" s="3">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="3">
-        <v>504</v>
-      </c>
-      <c r="B144" s="3" t="s">
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>505</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1">
-        <v>505</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="C144" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="3">
+        <v>508</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:3">
       <c r="A146" s="3">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:3">
       <c r="A147" s="3">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:3">
       <c r="A148" s="3">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="3">
-        <v>511</v>
-      </c>
-      <c r="B149" s="3" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>512</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>512</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="C149" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="3">
+        <v>551</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:3">
       <c r="A151" s="3">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:3">
       <c r="A152" s="3">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:3">
       <c r="A153" s="3">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="3">
-        <v>618</v>
-      </c>
-      <c r="B154" s="3" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>620</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
-        <v>620</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="C154" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="3">
+        <v>621</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:3">
       <c r="A156" s="3">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:3">
       <c r="A157" s="3">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:3">
       <c r="A158" s="3">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:3">
       <c r="A159" s="3">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:3">
       <c r="A160" s="3">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:3">
       <c r="A161" s="3">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:3">
       <c r="A162" s="3">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:3">
       <c r="A163" s="3">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:3">
       <c r="A164" s="3">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:3">
       <c r="A165" s="3">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:3">
       <c r="A166" s="3">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:3">
       <c r="A167" s="3">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:3">
       <c r="A168" s="3">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:3">
       <c r="A169" s="3">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:3">
       <c r="A170" s="3">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="3">
-        <v>662</v>
-      </c>
-      <c r="B171" s="3" t="s">
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>663</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1">
-        <v>670</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="C177" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="3">
+        <v>688</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="3">
-        <v>688</v>
-      </c>
-      <c r="B179" s="3" t="s">
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>726</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1">
-        <v>753</v>
-      </c>
-      <c r="B185" s="1" t="s">
+      <c r="C184" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="3">
+        <v>754</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:3">
       <c r="A186" s="3">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:3">
       <c r="A187" s="3">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:3">
       <c r="A188" s="3">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="3">
-        <v>757</v>
-      </c>
-      <c r="B189" s="3" t="s">
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>758</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1">
-        <v>759</v>
-      </c>
-      <c r="B191" s="1" t="s">
+      <c r="C190" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="3">
+        <v>760</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="3">
-        <v>760</v>
-      </c>
-      <c r="B192" s="3" t="s">
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>761</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="C205" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="C206" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="C207" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="C218" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="C219" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="C220" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="C221" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="C222" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="C223" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="C224" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="C225" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="C226" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="C227" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="C228" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="C229" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1">
-        <v>835</v>
-      </c>
-      <c r="B231" s="1" t="s">
+      <c r="C230" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="3">
+        <v>901</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:3">
       <c r="A232" s="3">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:3">
       <c r="A233" s="3">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:3">
       <c r="A234" s="3">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:3">
       <c r="A235" s="3">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:3">
       <c r="A236" s="3">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:3">
       <c r="A237" s="3">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:3">
       <c r="A238" s="3">
-        <v>907</v>
+        <v>943</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:3">
       <c r="A239" s="3">
-        <v>943</v>
+        <v>10273</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:3">
       <c r="A240" s="3">
-        <v>10273</v>
+        <v>10274</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>238</v>
@@ -3935,7 +4931,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="3">
-        <v>10274</v>
+        <v>10275</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>239</v>
@@ -3943,7 +4939,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="3">
-        <v>10275</v>
+        <v>10282</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>240</v>
@@ -3951,7 +4947,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="3">
-        <v>10282</v>
+        <v>10283</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>241</v>
@@ -3959,7 +4955,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="3">
-        <v>10283</v>
+        <v>10284</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>242</v>
@@ -3967,7 +4963,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="3">
-        <v>10284</v>
+        <v>10285</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>243</v>
@@ -3975,7 +4971,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="3">
-        <v>10285</v>
+        <v>10286</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>244</v>
@@ -3983,7 +4979,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="3">
-        <v>10286</v>
+        <v>10287</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>245</v>
@@ -3991,7 +4987,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="3">
-        <v>10287</v>
+        <v>10288</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>246</v>
@@ -3999,7 +4995,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="3">
-        <v>10288</v>
+        <v>10289</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>247</v>
@@ -4007,7 +5003,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="3">
-        <v>10289</v>
+        <v>10290</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>248</v>
@@ -4015,7 +5011,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="3">
-        <v>10290</v>
+        <v>10291</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>249</v>
@@ -4023,7 +5019,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="3">
-        <v>10291</v>
+        <v>10292</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>250</v>
@@ -4031,7 +5027,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="3">
-        <v>10292</v>
+        <v>10293</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>251</v>
@@ -4039,7 +5035,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="3">
-        <v>10293</v>
+        <v>10294</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>252</v>
@@ -4047,7 +5043,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="3">
-        <v>10294</v>
+        <v>10295</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>253</v>
@@ -4055,143 +5051,188 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="3">
-        <v>10295</v>
+        <v>10296</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="3">
-        <v>10296</v>
-      </c>
-      <c r="B257" s="3" t="s">
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>10297</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
+      <c r="C257" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>10297</v>
+        <v>10301</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="C258" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>10301</v>
+        <v>10302</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
+      <c r="C259" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>10302</v>
+        <v>10303</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
+      <c r="C260" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>10303</v>
+        <v>10304</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
+      <c r="C261" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>10304</v>
+        <v>10305</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
+      <c r="C262" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>10305</v>
+        <v>10306</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="C263" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>10306</v>
+        <v>10307</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
+      <c r="C264" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>10307</v>
+        <v>10310</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
+      <c r="C265" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>10310</v>
+        <v>10311</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="C266" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>10311</v>
+        <v>10312</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
+      <c r="C267" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>10312</v>
+        <v>10315</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
+      <c r="C268" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>10315</v>
+        <v>10316</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
+      <c r="C269" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>10316</v>
+        <v>10317</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
+      <c r="C270" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>10317</v>
+        <v>10318</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1">
-        <v>10318</v>
-      </c>
-      <c r="B272" s="1" t="s">
+      <c r="C271" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="3">
+        <v>10320</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="3">
-        <v>10320</v>
+        <v>10321</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>271</v>
@@ -4199,7 +5240,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="3">
-        <v>10321</v>
+        <v>10322</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>272</v>
@@ -4207,7 +5248,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="3">
-        <v>10322</v>
+        <v>10323</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>273</v>
@@ -4215,7 +5256,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="3">
-        <v>10323</v>
+        <v>10324</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>274</v>
@@ -4223,7 +5264,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="3">
-        <v>10324</v>
+        <v>10325</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>275</v>
@@ -4231,7 +5272,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="3">
-        <v>10325</v>
+        <v>10326</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>276</v>
@@ -4239,7 +5280,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="3">
-        <v>10326</v>
+        <v>10327</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>277</v>
@@ -4247,7 +5288,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="3">
-        <v>10327</v>
+        <v>10328</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>278</v>
@@ -4255,7 +5296,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="3">
-        <v>10328</v>
+        <v>10329</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>279</v>
@@ -4263,7 +5304,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="3">
-        <v>10329</v>
+        <v>10330</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>280</v>
@@ -4271,7 +5312,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="3">
-        <v>10330</v>
+        <v>10331</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>281</v>
@@ -4279,7 +5320,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="3">
-        <v>10331</v>
+        <v>10332</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>282</v>
@@ -4287,7 +5328,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="3">
-        <v>10332</v>
+        <v>10333</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>283</v>
@@ -4295,7 +5336,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="3">
-        <v>10333</v>
+        <v>10334</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>284</v>
@@ -4303,7 +5344,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="3">
-        <v>10334</v>
+        <v>10335</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>285</v>
@@ -4311,1954 +5352,2429 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="3">
-        <v>10335</v>
+        <v>10336</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:3">
       <c r="A289" s="3">
-        <v>10336</v>
+        <v>10337</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:3">
       <c r="A290" s="3">
-        <v>10337</v>
+        <v>10338</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="3">
-        <v>10338</v>
-      </c>
-      <c r="B291" s="3" t="s">
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>10339</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1">
-        <v>10339</v>
-      </c>
-      <c r="B292" s="1" t="s">
+      <c r="C291" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="3">
+        <v>10341</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:3">
       <c r="A293" s="3">
-        <v>10341</v>
+        <v>10342</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:3">
       <c r="A294" s="3">
-        <v>10342</v>
+        <v>10343</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:3">
       <c r="A295" s="3">
-        <v>10343</v>
+        <v>10344</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:3">
       <c r="A296" s="3">
-        <v>10344</v>
+        <v>10345</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:3">
       <c r="A297" s="3">
-        <v>10345</v>
+        <v>10346</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="3">
-        <v>10346</v>
-      </c>
-      <c r="B298" s="3" t="s">
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>10351</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
+      <c r="C298" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>10351</v>
+        <v>10352</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
+      <c r="C299" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>10352</v>
+        <v>10353</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:2">
+      <c r="C300" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>10353</v>
+        <v>10354</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="302" spans="1:2">
+      <c r="C301" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>10354</v>
+        <v>10357</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1">
-        <v>10357</v>
-      </c>
-      <c r="B303" s="1" t="s">
+      <c r="C302" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="3">
+        <v>10358</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:3">
       <c r="A304" s="3">
-        <v>10358</v>
+        <v>10359</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:3">
       <c r="A305" s="3">
-        <v>10359</v>
+        <v>10360</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:3">
       <c r="A306" s="3">
-        <v>10360</v>
+        <v>10361</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:3">
       <c r="A307" s="3">
-        <v>10361</v>
+        <v>10362</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:3">
       <c r="A308" s="3">
-        <v>10362</v>
+        <v>10363</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:3">
       <c r="A309" s="3">
-        <v>10363</v>
+        <v>10364</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:3">
       <c r="A310" s="3">
-        <v>10364</v>
+        <v>10365</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:3">
       <c r="A311" s="3">
-        <v>10365</v>
+        <v>10366</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:3">
       <c r="A312" s="3">
-        <v>10366</v>
+        <v>10368</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="3">
-        <v>10368</v>
-      </c>
-      <c r="B313" s="3" t="s">
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>10369</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="314" spans="1:2">
+      <c r="C313" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>10369</v>
+        <v>10370</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="315" spans="1:2">
+      <c r="C314" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>10370</v>
+        <v>10371</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="316" spans="1:2">
+      <c r="C315" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>10371</v>
+        <v>10372</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="317" spans="1:2">
+      <c r="C316" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>10372</v>
+        <v>10374</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="318" spans="1:2">
+      <c r="C317" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>10374</v>
+        <v>10375</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="319" spans="1:2">
+      <c r="C318" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>10375</v>
+        <v>10376</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="320" spans="1:2">
+      <c r="C319" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>10376</v>
+        <v>10377</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
+      <c r="C320" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>10377</v>
+        <v>10378</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="C321" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>10378</v>
+        <v>10379</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="C322" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>10379</v>
+        <v>10380</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1">
-        <v>10380</v>
-      </c>
-      <c r="B324" s="1" t="s">
+      <c r="C323" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="3">
+        <v>10381</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:3">
       <c r="A325" s="3">
-        <v>10381</v>
+        <v>10382</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:3">
       <c r="A326" s="3">
-        <v>10382</v>
+        <v>10383</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:3">
       <c r="A327" s="3">
-        <v>10383</v>
+        <v>10384</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:3">
       <c r="A328" s="3">
-        <v>10384</v>
+        <v>10385</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:3">
       <c r="A329" s="3">
-        <v>10385</v>
+        <v>10386</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="3">
-        <v>10386</v>
-      </c>
-      <c r="B330" s="3" t="s">
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>10387</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1">
-        <v>10387</v>
-      </c>
-      <c r="B331" s="1" t="s">
+      <c r="C330" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="3">
+        <v>10388</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:3">
       <c r="A332" s="3">
-        <v>10388</v>
+        <v>10389</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:3">
       <c r="A333" s="3">
-        <v>10389</v>
+        <v>10390</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="3">
-        <v>10390</v>
-      </c>
-      <c r="B334" s="3" t="s">
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>10391</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>10391</v>
+        <v>10392</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1">
-        <v>10392</v>
-      </c>
-      <c r="B336" s="1" t="s">
+      <c r="C335" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="3">
+        <v>10393</v>
+      </c>
+      <c r="B336" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="3">
-        <v>10393</v>
-      </c>
-      <c r="B337" s="3" t="s">
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>10394</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
+      <c r="C337" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>10394</v>
+        <v>10395</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1">
-        <v>10395</v>
-      </c>
-      <c r="B339" s="1" t="s">
+      <c r="C338" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="3">
+        <v>10397</v>
+      </c>
+      <c r="B339" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="3">
-        <v>10397</v>
-      </c>
-      <c r="B340" s="3" t="s">
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>10398</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
+      <c r="C340" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>10398</v>
+        <v>10399</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1">
-        <v>10399</v>
-      </c>
-      <c r="B342" s="1" t="s">
+      <c r="C341" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="3">
+        <v>10401</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="3">
-        <v>10401</v>
-      </c>
-      <c r="B343" s="3" t="s">
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>10402</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
+      <c r="C343" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>10402</v>
+        <v>10403</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1">
-        <v>10403</v>
-      </c>
-      <c r="B345" s="1" t="s">
+      <c r="C344" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="3">
+        <v>10404</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="3">
-        <v>10404</v>
-      </c>
-      <c r="B346" s="3" t="s">
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>10405</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
+      <c r="C346" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>10405</v>
+        <v>10406</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1">
-        <v>10406</v>
-      </c>
-      <c r="B348" s="1" t="s">
+      <c r="C347" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="3">
+        <v>10408</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="3">
-        <v>10408</v>
-      </c>
-      <c r="B349" s="3" t="s">
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>10409</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
+      <c r="C349" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>10409</v>
+        <v>10410</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="1">
-        <v>10410</v>
-      </c>
-      <c r="B351" s="1" t="s">
+      <c r="C350" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="3">
+        <v>10411</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="3">
-        <v>10411</v>
-      </c>
-      <c r="B352" s="3" t="s">
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
+        <v>10412</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="353" spans="1:2">
+      <c r="C352" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>10412</v>
+        <v>10413</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="1">
-        <v>10413</v>
-      </c>
-      <c r="B354" s="1" t="s">
+      <c r="C353" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="3">
+        <v>10414</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:3">
       <c r="A355" s="3">
-        <v>10414</v>
+        <v>10415</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="3">
-        <v>10415</v>
-      </c>
-      <c r="B356" s="3" t="s">
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>10416</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="357" spans="1:2">
+      <c r="C356" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" s="1">
-        <v>10416</v>
+        <v>10417</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="358" spans="1:2">
+      <c r="C357" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" s="1">
-        <v>10417</v>
+        <v>10419</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="359" spans="1:2">
+      <c r="C358" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" s="1">
-        <v>10419</v>
+        <v>10420</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="360" spans="1:2">
+      <c r="C359" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>10420</v>
+        <v>10421</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="361" spans="1:2">
+      <c r="C360" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" s="1">
-        <v>10421</v>
+        <v>10422</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="362" spans="1:2">
+      <c r="C361" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" s="1">
-        <v>10422</v>
+        <v>10424</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="363" spans="1:2">
+      <c r="C362" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" s="1">
-        <v>10424</v>
+        <v>10425</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="364" spans="1:2">
+      <c r="C363" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" s="1">
-        <v>10425</v>
+        <v>10426</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="365" spans="1:2">
+      <c r="C364" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" s="1">
-        <v>10426</v>
+        <v>10427</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="366" spans="1:2">
+      <c r="C365" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" s="1">
-        <v>10427</v>
+        <v>10430</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="367" spans="1:2">
+      <c r="C366" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" s="1">
-        <v>10430</v>
+        <v>10431</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="368" spans="1:2">
+      <c r="C367" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
       <c r="A368" s="1">
-        <v>10431</v>
+        <v>10432</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="369" spans="1:2">
+      <c r="C368" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369" s="1">
-        <v>10432</v>
+        <v>10433</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="370" spans="1:2">
+      <c r="C369" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" s="1">
-        <v>10433</v>
+        <v>10434</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="371" spans="1:2">
+      <c r="C370" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>10434</v>
+        <v>10435</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="372" spans="1:2">
+      <c r="C371" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>10435</v>
+        <v>10436</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="373" spans="1:2">
+      <c r="C372" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
       <c r="A373" s="1">
-        <v>10436</v>
+        <v>10437</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="374" spans="1:2">
+      <c r="C373" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>10437</v>
+        <v>10438</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="375" spans="1:2">
+      <c r="C374" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
       <c r="A375" s="1">
-        <v>10438</v>
+        <v>10439</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="376" spans="1:2">
+      <c r="C375" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376" s="1">
-        <v>10439</v>
+        <v>10440</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="377" spans="1:2">
+      <c r="C376" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
       <c r="A377" s="1">
-        <v>10440</v>
+        <v>10441</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="378" spans="1:2">
+      <c r="C377" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" s="1">
-        <v>10441</v>
+        <v>10442</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="379" spans="1:2">
+      <c r="C378" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379" s="1">
-        <v>10442</v>
+        <v>10443</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="380" spans="1:2">
+      <c r="C379" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>10443</v>
+        <v>10444</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="381" spans="1:2">
+      <c r="C380" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" s="1">
-        <v>10444</v>
+        <v>10445</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="382" spans="1:2">
+      <c r="C381" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" s="1">
-        <v>10445</v>
+        <v>10446</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="383" spans="1:2">
+      <c r="C382" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" s="1">
-        <v>10446</v>
+        <v>10447</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="384" spans="1:2">
+      <c r="C383" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384" s="1">
-        <v>10447</v>
+        <v>10450</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="385" spans="1:2">
+      <c r="C384" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>10450</v>
+        <v>10452</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="1">
-        <v>10452</v>
-      </c>
-      <c r="B386" s="1" t="s">
+      <c r="C385" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="3">
+        <v>10453</v>
+      </c>
+      <c r="B386" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="3">
-        <v>10453</v>
-      </c>
-      <c r="B387" s="3" t="s">
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>10455</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="388" spans="1:2">
+      <c r="C387" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
       <c r="A388" s="1">
-        <v>10455</v>
+        <v>10456</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="389" spans="1:2">
+      <c r="C388" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
       <c r="A389" s="1">
-        <v>10456</v>
+        <v>10457</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="390" spans="1:2">
+      <c r="C389" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
       <c r="A390" s="1">
-        <v>10457</v>
+        <v>10458</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="391" spans="1:2">
+      <c r="C390" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
       <c r="A391" s="1">
-        <v>10458</v>
+        <v>10459</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="392" spans="1:2">
+      <c r="C391" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
       <c r="A392" s="1">
-        <v>10459</v>
+        <v>10460</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="393" spans="1:2">
+      <c r="C392" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
       <c r="A393" s="1">
-        <v>10460</v>
+        <v>10461</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="394" spans="1:2">
+      <c r="C393" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
       <c r="A394" s="1">
-        <v>10461</v>
+        <v>10462</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="395" spans="1:2">
+      <c r="C394" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>10462</v>
+        <v>10464</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" s="1">
-        <v>10464</v>
-      </c>
-      <c r="B396" s="1" t="s">
+      <c r="C395" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="3">
+        <v>10465</v>
+      </c>
+      <c r="B396" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:3">
       <c r="A397" s="3">
-        <v>10465</v>
+        <v>10472</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:3">
       <c r="A398" s="3">
-        <v>10472</v>
+        <v>10501</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:3">
       <c r="A399" s="3">
-        <v>10501</v>
+        <v>10502</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:3">
       <c r="A400" s="3">
-        <v>10502</v>
+        <v>10503</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:3">
       <c r="A401" s="3">
-        <v>10503</v>
+        <v>10504</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:3">
       <c r="A402" s="3">
-        <v>10504</v>
+        <v>10505</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="3">
-        <v>10505</v>
-      </c>
-      <c r="B403" s="3" t="s">
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
+        <v>10506</v>
+      </c>
+      <c r="B403" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="404" spans="1:2">
+      <c r="C403" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>10506</v>
+        <v>10701</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="405" spans="1:2">
+      <c r="C404" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
       <c r="A405" s="1">
-        <v>10701</v>
+        <v>10702</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="406" spans="1:2">
+      <c r="C405" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
       <c r="A406" s="1">
-        <v>10702</v>
+        <v>10703</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="407" spans="1:2">
+      <c r="C406" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
       <c r="A407" s="1">
-        <v>10703</v>
+        <v>10704</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="408" spans="1:2">
+      <c r="C407" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" s="1">
-        <v>10704</v>
+        <v>10705</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="409" spans="1:2">
+      <c r="C408" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" s="1">
-        <v>10705</v>
+        <v>10707</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="410" spans="1:2">
+      <c r="C409" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
       <c r="A410" s="1">
-        <v>10707</v>
+        <v>10708</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="411" spans="1:2">
+      <c r="C410" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
       <c r="A411" s="1">
-        <v>10708</v>
+        <v>10709</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="412" spans="1:2">
+      <c r="C411" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" s="1">
-        <v>10709</v>
+        <v>10710</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="413" spans="1:2">
+      <c r="C412" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
       <c r="A413" s="1">
-        <v>10710</v>
+        <v>10712</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="414" spans="1:2">
+      <c r="C413" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
       <c r="A414" s="1">
-        <v>10712</v>
+        <v>10713</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="415" spans="1:2">
+      <c r="C414" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
       <c r="A415" s="1">
-        <v>10713</v>
+        <v>10714</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="416" spans="1:2">
+      <c r="C415" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416" s="1">
-        <v>10714</v>
+        <v>10715</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="417" spans="1:2">
+      <c r="C416" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" s="1">
-        <v>10715</v>
+        <v>10716</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="418" spans="1:2">
+      <c r="C417" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418" s="1">
-        <v>10716</v>
+        <v>10717</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="419" spans="1:2">
+      <c r="C418" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>10717</v>
+        <v>10718</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="420" spans="1:2">
+      <c r="C419" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
       <c r="A420" s="1">
-        <v>10718</v>
+        <v>10720</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="421" spans="1:2">
+      <c r="C420" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
       <c r="A421" s="1">
-        <v>10720</v>
+        <v>10721</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="422" spans="1:2">
+      <c r="C421" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
       <c r="A422" s="1">
-        <v>10721</v>
+        <v>10722</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="423" spans="1:2">
+      <c r="C422" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" s="1">
-        <v>10722</v>
+        <v>10723</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="424" spans="1:2">
+      <c r="C423" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" s="1">
-        <v>10723</v>
+        <v>10724</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="425" spans="1:2">
+      <c r="C424" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" s="1">
-        <v>10724</v>
+        <v>10725</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="426" spans="1:2">
+      <c r="C425" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" s="1">
-        <v>10725</v>
+        <v>10726</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="427" spans="1:2">
+      <c r="C426" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" s="1">
-        <v>10726</v>
+        <v>10727</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="428" spans="1:2">
+      <c r="C427" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" s="1">
-        <v>10727</v>
+        <v>10728</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="429" spans="1:2">
+      <c r="C428" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" s="1">
-        <v>10728</v>
+        <v>10729</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="430" spans="1:2">
+      <c r="C429" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" s="1">
-        <v>10729</v>
+        <v>10730</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="431" spans="1:2">
+      <c r="C430" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
       <c r="A431" s="1">
-        <v>10730</v>
+        <v>10731</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" s="1">
-        <v>10731</v>
-      </c>
-      <c r="B432" s="1" t="s">
+      <c r="C431" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="3">
+        <v>10732</v>
+      </c>
+      <c r="B432" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:3">
       <c r="A433" s="3">
-        <v>10732</v>
+        <v>10733</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:3">
       <c r="A434" s="3">
-        <v>10733</v>
+        <v>10734</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:3">
       <c r="A435" s="3">
-        <v>10734</v>
+        <v>10735</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:3">
       <c r="A436" s="3">
-        <v>10735</v>
+        <v>10736</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
       <c r="A437" s="3">
-        <v>10736</v>
+        <v>10737</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:3">
       <c r="A438" s="3">
-        <v>10737</v>
+        <v>10738</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:3">
       <c r="A439" s="3">
-        <v>10738</v>
+        <v>10739</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:3">
       <c r="A440" s="3">
-        <v>10739</v>
+        <v>10740</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:3">
       <c r="A441" s="3">
-        <v>10740</v>
+        <v>10741</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:3">
       <c r="A442" s="3">
-        <v>10741</v>
+        <v>10742</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:3">
       <c r="A443" s="3">
-        <v>10742</v>
+        <v>10743</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:3">
       <c r="A444" s="3">
-        <v>10743</v>
+        <v>10744</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:3">
       <c r="A445" s="3">
-        <v>10744</v>
+        <v>10745</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:3">
       <c r="A446" s="3">
-        <v>10745</v>
+        <v>10746</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
-      <c r="A447" s="3">
-        <v>10746</v>
-      </c>
-      <c r="B447" s="3" t="s">
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>10747</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="448" spans="1:2">
+      <c r="C447" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" s="1">
-        <v>10747</v>
+        <v>10748</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="449" spans="1:2">
+      <c r="C448" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>10748</v>
+        <v>10749</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" s="1">
-        <v>10749</v>
-      </c>
-      <c r="B450" s="1" t="s">
+      <c r="C449" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="3">
+        <v>10751</v>
+      </c>
+      <c r="B450" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
-      <c r="A451" s="3">
-        <v>10751</v>
-      </c>
-      <c r="B451" s="3" t="s">
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>10752</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="452" spans="1:2">
+      <c r="C451" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
       <c r="A452" s="1">
-        <v>10752</v>
+        <v>10753</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" s="1">
-        <v>10753</v>
-      </c>
-      <c r="B453" s="1" t="s">
+      <c r="C452" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="3">
+        <v>10755</v>
+      </c>
+      <c r="B453" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:3">
       <c r="A454" s="3">
-        <v>10755</v>
+        <v>10756</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:3">
       <c r="A455" s="3">
-        <v>10756</v>
+        <v>10757</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:3">
       <c r="A456" s="3">
-        <v>10757</v>
+        <v>10758</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:3">
       <c r="A457" s="3">
-        <v>10758</v>
+        <v>10760</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:3">
       <c r="A458" s="3">
-        <v>10760</v>
+        <v>10761</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:3">
       <c r="A459" s="3">
-        <v>10761</v>
+        <v>10762</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:3">
       <c r="A460" s="3">
-        <v>10762</v>
+        <v>10763</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:3">
       <c r="A461" s="3">
-        <v>10763</v>
+        <v>10764</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:3">
       <c r="A462" s="3">
-        <v>10764</v>
+        <v>10766</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
-      <c r="A463" s="3">
-        <v>10766</v>
-      </c>
-      <c r="B463" s="3" t="s">
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>10767</v>
+      </c>
+      <c r="B463" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" s="1">
-        <v>10767</v>
-      </c>
-      <c r="B464" s="1" t="s">
+      <c r="C463" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="3">
+        <v>10769</v>
+      </c>
+      <c r="B464" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:3">
       <c r="A465" s="3">
-        <v>10769</v>
+        <v>10770</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:3">
       <c r="A466" s="3">
-        <v>10770</v>
+        <v>10771</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:3">
       <c r="A467" s="3">
-        <v>10771</v>
+        <v>10772</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
-      <c r="A468" s="3">
-        <v>10772</v>
-      </c>
-      <c r="B468" s="3" t="s">
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>10774</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" s="1">
-        <v>10774</v>
-      </c>
-      <c r="B469" s="1" t="s">
+      <c r="C468" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="3">
+        <v>10775</v>
+      </c>
+      <c r="B469" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="3">
-        <v>10775</v>
-      </c>
-      <c r="B470" s="3" t="s">
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>10776</v>
+      </c>
+      <c r="B470" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="471" spans="1:2">
+      <c r="C470" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
       <c r="A471" s="1">
-        <v>10776</v>
+        <v>10777</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="472" spans="1:2">
+      <c r="C471" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
       <c r="A472" s="1">
-        <v>10777</v>
+        <v>10779</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="473" spans="1:2">
+      <c r="C472" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
       <c r="A473" s="1">
-        <v>10779</v>
+        <v>10780</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="474" spans="1:2">
+      <c r="C473" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
       <c r="A474" s="1">
-        <v>10780</v>
+        <v>10781</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" s="1">
-        <v>10781</v>
-      </c>
-      <c r="B475" s="1" t="s">
+      <c r="C474" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="3">
+        <v>10782</v>
+      </c>
+      <c r="B475" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
-      <c r="A476" s="3">
-        <v>10782</v>
-      </c>
-      <c r="B476" s="3" t="s">
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>10783</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="477" spans="1:2">
+      <c r="C476" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
       <c r="A477" s="1">
-        <v>10783</v>
+        <v>10784</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" s="1">
-        <v>10784</v>
-      </c>
-      <c r="B478" s="1" t="s">
+      <c r="C477" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="3">
+        <v>10785</v>
+      </c>
+      <c r="B478" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
-      <c r="A479" s="3">
-        <v>10785</v>
-      </c>
-      <c r="B479" s="3" t="s">
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
+        <v>10786</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="480" spans="1:2">
+      <c r="C479" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
       <c r="A480" s="1">
-        <v>10786</v>
+        <v>10787</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" s="1">
-        <v>10787</v>
-      </c>
-      <c r="B481" s="1" t="s">
+      <c r="C480" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="3">
+        <v>10789</v>
+      </c>
+      <c r="B481" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:3">
       <c r="A482" s="3">
-        <v>10789</v>
+        <v>10790</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:3">
       <c r="A483" s="3">
-        <v>10790</v>
+        <v>10791</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:3">
       <c r="A484" s="3">
-        <v>10791</v>
+        <v>10792</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
-      <c r="A485" s="3">
-        <v>10792</v>
-      </c>
-      <c r="B485" s="3" t="s">
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
+        <v>10793</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="486" spans="1:2">
+      <c r="C485" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
       <c r="A486" s="1">
-        <v>10793</v>
+        <v>10794</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" s="1">
-        <v>10794</v>
-      </c>
-      <c r="B487" s="1" t="s">
+      <c r="C486" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="3">
+        <v>10795</v>
+      </c>
+      <c r="B487" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
-      <c r="A488" s="3">
-        <v>10795</v>
-      </c>
-      <c r="B488" s="3" t="s">
+    <row r="488" spans="1:3">
+      <c r="A488" s="1">
+        <v>10796</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="489" spans="1:2">
+      <c r="C488" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
       <c r="A489" s="1">
-        <v>10796</v>
+        <v>10797</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="490" spans="1:2">
+      <c r="C489" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
       <c r="A490" s="1">
-        <v>10797</v>
+        <v>10798</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="491" spans="1:2">
+      <c r="C490" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
       <c r="A491" s="1">
-        <v>10798</v>
+        <v>10799</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="492" spans="1:2">
+      <c r="C491" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
       <c r="A492" s="1">
-        <v>10799</v>
+        <v>10800</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="493" spans="1:2">
+      <c r="C492" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
       <c r="A493" s="1">
-        <v>10800</v>
+        <v>10801</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="494" spans="1:2">
+      <c r="C493" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
       <c r="A494" s="1">
-        <v>10801</v>
+        <v>10802</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="495" spans="1:2">
+      <c r="C494" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
       <c r="A495" s="1">
-        <v>10802</v>
+        <v>10803</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="496" spans="1:2">
+      <c r="C495" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
       <c r="A496" s="1">
-        <v>10803</v>
+        <v>10804</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="497" spans="1:2">
+      <c r="C496" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
       <c r="A497" s="1">
-        <v>10804</v>
+        <v>10805</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="498" spans="1:2">
+      <c r="C497" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
       <c r="A498" s="1">
-        <v>10805</v>
+        <v>10806</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="499" spans="1:2">
+      <c r="C498" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
       <c r="A499" s="1">
-        <v>10806</v>
+        <v>10807</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="500" spans="1:2">
+      <c r="C499" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
       <c r="A500" s="1">
-        <v>10807</v>
+        <v>10809</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="501" spans="1:2">
+      <c r="C500" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
       <c r="A501" s="1">
-        <v>10809</v>
+        <v>10811</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="502" spans="1:2">
+      <c r="C501" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
       <c r="A502" s="1">
-        <v>10811</v>
+        <v>10812</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="503" spans="1:2">
+      <c r="C502" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
       <c r="A503" s="1">
-        <v>10812</v>
+        <v>10813</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="504" spans="1:2">
+      <c r="C503" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
       <c r="A504" s="1">
-        <v>10813</v>
+        <v>10814</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="505" spans="1:2">
+      <c r="C504" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
       <c r="A505" s="1">
-        <v>10814</v>
+        <v>10815</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="506" spans="1:2">
+      <c r="C505" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
       <c r="A506" s="1">
-        <v>10815</v>
+        <v>10817</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="507" spans="1:2">
+      <c r="C506" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
       <c r="A507" s="1">
-        <v>10817</v>
+        <v>10818</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="508" spans="1:2">
+      <c r="C507" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
       <c r="A508" s="1">
-        <v>10818</v>
+        <v>10819</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="509" spans="1:2">
+      <c r="C508" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
       <c r="A509" s="1">
-        <v>10819</v>
+        <v>10820</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="510" spans="1:2">
+      <c r="C509" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
       <c r="A510" s="1">
-        <v>10820</v>
+        <v>10821</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="511" spans="1:2">
+      <c r="C510" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
       <c r="A511" s="1">
-        <v>10821</v>
+        <v>10823</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="512" spans="1:2">
+      <c r="C511" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
       <c r="A512" s="1">
-        <v>10823</v>
+        <v>10824</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="513" spans="1:2">
+      <c r="C512" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
       <c r="A513" s="1">
-        <v>10824</v>
+        <v>10825</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="514" spans="1:2">
+      <c r="C513" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
       <c r="A514" s="1">
-        <v>10825</v>
+        <v>10826</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="515" spans="1:2">
+      <c r="C514" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
       <c r="A515" s="1">
-        <v>10826</v>
+        <v>10827</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="516" spans="1:2">
+      <c r="C515" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
       <c r="A516" s="1">
-        <v>10827</v>
+        <v>10829</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="517" spans="1:2">
+      <c r="C516" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
       <c r="A517" s="1">
-        <v>10829</v>
+        <v>10830</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="518" spans="1:2">
+      <c r="C517" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
       <c r="A518" s="1">
-        <v>10830</v>
+        <v>10831</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="519" spans="1:2">
+      <c r="C518" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
       <c r="A519" s="1">
-        <v>10831</v>
+        <v>10832</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="520" spans="1:2">
+      <c r="C519" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
       <c r="A520" s="1">
-        <v>10832</v>
+        <v>10833</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="521" spans="1:2">
+      <c r="C520" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
       <c r="A521" s="1">
-        <v>10833</v>
+        <v>10836</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="522" spans="1:2">
+      <c r="C521" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
       <c r="A522" s="1">
-        <v>10836</v>
+        <v>10837</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="523" spans="1:2">
+      <c r="C522" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
       <c r="A523" s="1">
-        <v>10837</v>
+        <v>10838</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="524" spans="1:2">
+      <c r="C523" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
       <c r="A524" s="1">
-        <v>10838</v>
+        <v>10839</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="525" spans="1:2">
+      <c r="C524" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
       <c r="A525" s="1">
-        <v>10839</v>
+        <v>10840</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="526" spans="1:2">
+      <c r="C525" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
       <c r="A526" s="1">
-        <v>10840</v>
+        <v>10841</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="527" spans="1:2">
+      <c r="C526" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
       <c r="A527" s="1">
-        <v>10841</v>
+        <v>10843</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="528" spans="1:2">
+      <c r="C527" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
       <c r="A528" s="1">
-        <v>10843</v>
+        <v>10844</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="529" spans="1:2">
+      <c r="C528" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
       <c r="A529" s="1">
-        <v>10844</v>
+        <v>10845</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="530" spans="1:2">
+      <c r="C529" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
       <c r="A530" s="1">
-        <v>10845</v>
+        <v>10846</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="531" spans="1:2">
-      <c r="A531" s="1">
-        <v>10846</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>528</v>
+      <c r="C530" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
+++ b/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="785">
   <si>
     <t>Parcel Delivery</t>
   </si>
@@ -2195,9 +2195,6 @@
   </si>
   <si>
     <t>https://l2wiki.com/Mysterious_Suggestion_-_2</t>
-  </si>
-  <si>
-    <t>https://l2wiki.com/Winds_of_Fate:_A_Promise</t>
   </si>
   <si>
     <t>https://l2wiki.com/Winds_of_Fate:_Choices</t>
@@ -2750,7 +2747,7 @@
   <dimension ref="A1:E530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2767,7 +2764,7 @@
         <v>529</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
@@ -2778,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
         <v>530</v>
@@ -2793,7 +2790,7 @@
       </c>
       <c r="D3" s="5">
         <f>(D2*100)/529</f>
-        <v>51.984877126654062</v>
+        <v>52.173913043478258</v>
       </c>
       <c r="E3" t="s">
         <v>531</v>
@@ -6964,14 +6961,11 @@
       </c>
     </row>
     <row r="451" spans="1:3">
-      <c r="A451" s="1">
+      <c r="A451" s="3">
         <v>10752</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B451" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="C451" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6982,7 +6976,7 @@
         <v>449</v>
       </c>
       <c r="C452" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7073,7 +7067,7 @@
         <v>460</v>
       </c>
       <c r="C463" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7116,7 +7110,7 @@
         <v>465</v>
       </c>
       <c r="C468" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7135,7 +7129,7 @@
         <v>467</v>
       </c>
       <c r="C470" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7146,7 +7140,7 @@
         <v>468</v>
       </c>
       <c r="C471" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7157,7 +7151,7 @@
         <v>469</v>
       </c>
       <c r="C472" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7168,7 +7162,7 @@
         <v>470</v>
       </c>
       <c r="C473" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7179,7 +7173,7 @@
         <v>471</v>
       </c>
       <c r="C474" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7198,7 +7192,7 @@
         <v>473</v>
       </c>
       <c r="C476" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7209,7 +7203,7 @@
         <v>474</v>
       </c>
       <c r="C477" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7228,7 +7222,7 @@
         <v>476</v>
       </c>
       <c r="C479" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7239,7 +7233,7 @@
         <v>477</v>
       </c>
       <c r="C480" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7282,7 +7276,7 @@
         <v>482</v>
       </c>
       <c r="C485" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7293,7 +7287,7 @@
         <v>483</v>
       </c>
       <c r="C486" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7312,7 +7306,7 @@
         <v>485</v>
       </c>
       <c r="C488" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7323,7 +7317,7 @@
         <v>486</v>
       </c>
       <c r="C489" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7334,7 +7328,7 @@
         <v>487</v>
       </c>
       <c r="C490" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7345,7 +7339,7 @@
         <v>488</v>
       </c>
       <c r="C491" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7356,7 +7350,7 @@
         <v>489</v>
       </c>
       <c r="C492" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7367,7 +7361,7 @@
         <v>490</v>
       </c>
       <c r="C493" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7378,7 +7372,7 @@
         <v>491</v>
       </c>
       <c r="C494" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7389,7 +7383,7 @@
         <v>492</v>
       </c>
       <c r="C495" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7400,7 +7394,7 @@
         <v>493</v>
       </c>
       <c r="C496" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7411,7 +7405,7 @@
         <v>494</v>
       </c>
       <c r="C497" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7422,7 +7416,7 @@
         <v>495</v>
       </c>
       <c r="C498" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7433,7 +7427,7 @@
         <v>496</v>
       </c>
       <c r="C499" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7444,7 +7438,7 @@
         <v>497</v>
       </c>
       <c r="C500" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7455,7 +7449,7 @@
         <v>498</v>
       </c>
       <c r="C501" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7466,7 +7460,7 @@
         <v>499</v>
       </c>
       <c r="C502" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7477,7 +7471,7 @@
         <v>500</v>
       </c>
       <c r="C503" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7488,7 +7482,7 @@
         <v>501</v>
       </c>
       <c r="C504" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7499,7 +7493,7 @@
         <v>502</v>
       </c>
       <c r="C505" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7510,7 +7504,7 @@
         <v>503</v>
       </c>
       <c r="C506" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7521,7 +7515,7 @@
         <v>504</v>
       </c>
       <c r="C507" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7532,7 +7526,7 @@
         <v>505</v>
       </c>
       <c r="C508" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7543,7 +7537,7 @@
         <v>506</v>
       </c>
       <c r="C509" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7554,7 +7548,7 @@
         <v>507</v>
       </c>
       <c r="C510" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7565,7 +7559,7 @@
         <v>508</v>
       </c>
       <c r="C511" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7576,7 +7570,7 @@
         <v>509</v>
       </c>
       <c r="C512" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7587,7 +7581,7 @@
         <v>510</v>
       </c>
       <c r="C513" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7598,7 +7592,7 @@
         <v>511</v>
       </c>
       <c r="C514" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7609,7 +7603,7 @@
         <v>512</v>
       </c>
       <c r="C515" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -7620,7 +7614,7 @@
         <v>513</v>
       </c>
       <c r="C516" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -7631,7 +7625,7 @@
         <v>514</v>
       </c>
       <c r="C517" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -7642,7 +7636,7 @@
         <v>515</v>
       </c>
       <c r="C518" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7653,7 +7647,7 @@
         <v>516</v>
       </c>
       <c r="C519" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -7664,7 +7658,7 @@
         <v>517</v>
       </c>
       <c r="C520" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -7675,7 +7669,7 @@
         <v>518</v>
       </c>
       <c r="C521" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -7686,7 +7680,7 @@
         <v>519</v>
       </c>
       <c r="C522" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -7697,7 +7691,7 @@
         <v>520</v>
       </c>
       <c r="C523" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -7708,7 +7702,7 @@
         <v>521</v>
       </c>
       <c r="C524" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -7719,7 +7713,7 @@
         <v>522</v>
       </c>
       <c r="C525" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -7730,7 +7724,7 @@
         <v>523</v>
       </c>
       <c r="C526" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -7741,7 +7735,7 @@
         <v>524</v>
       </c>
       <c r="C527" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -7752,7 +7746,7 @@
         <v>525</v>
       </c>
       <c r="C528" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -7763,7 +7757,7 @@
         <v>526</v>
       </c>
       <c r="C529" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -7774,7 +7768,7 @@
         <v>527</v>
       </c>
       <c r="C530" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
+++ b/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="784">
   <si>
     <t>Parcel Delivery</t>
   </si>
@@ -1619,9 +1619,6 @@
   </si>
   <si>
     <t>https://l2wiki.com/Legendary_Tales</t>
-  </si>
-  <si>
-    <t>https://l2wiki.com/1000_years,_the_End_of_Lamentation</t>
   </si>
   <si>
     <t>https://l2wiki.com/Completely_Lost</t>
@@ -2764,7 +2761,7 @@
         <v>529</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
@@ -2775,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
         <v>530</v>
@@ -2790,7 +2787,7 @@
       </c>
       <c r="D3" s="5">
         <f>(D2*100)/529</f>
-        <v>52.173913043478258</v>
+        <v>52.362948960302461</v>
       </c>
       <c r="E3" t="s">
         <v>531</v>
@@ -3421,7 +3418,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="3">
         <v>298</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="3">
         <v>307</v>
       </c>
@@ -3437,7 +3434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="3">
         <v>310</v>
       </c>
@@ -3445,7 +3442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="3">
         <v>336</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="3">
         <v>337</v>
       </c>
@@ -3461,18 +3458,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
+    <row r="86" spans="1:2">
+      <c r="A86" s="3">
         <v>344</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C86" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="3">
         <v>359</v>
       </c>
@@ -3480,7 +3474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="3">
         <v>371</v>
       </c>
@@ -3488,7 +3482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="3">
         <v>373</v>
       </c>
@@ -3496,7 +3490,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="3">
         <v>376</v>
       </c>
@@ -3504,7 +3498,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="3">
         <v>377</v>
       </c>
@@ -3512,7 +3506,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="3">
         <v>381</v>
       </c>
@@ -3520,7 +3514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="3">
         <v>382</v>
       </c>
@@ -3528,7 +3522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="3">
         <v>386</v>
       </c>
@@ -3536,7 +3530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="3">
         <v>420</v>
       </c>
@@ -3544,7 +3538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="3">
         <v>421</v>
       </c>
@@ -3608,7 +3602,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3651,7 +3645,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3662,7 +3656,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3673,7 +3667,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3700,7 +3694,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3711,7 +3705,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3722,7 +3716,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3733,7 +3727,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3776,7 +3770,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3787,7 +3781,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3798,7 +3792,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3809,7 +3803,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3820,7 +3814,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3831,7 +3825,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3874,7 +3868,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3893,7 +3887,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3952,7 +3946,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3987,7 +3981,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4030,7 +4024,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4073,7 +4067,7 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4212,7 +4206,7 @@
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4223,7 +4217,7 @@
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4234,7 +4228,7 @@
         <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4245,7 +4239,7 @@
         <v>172</v>
       </c>
       <c r="C174" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4256,7 +4250,7 @@
         <v>173</v>
       </c>
       <c r="C175" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4267,7 +4261,7 @@
         <v>174</v>
       </c>
       <c r="C176" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4278,7 +4272,7 @@
         <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4297,7 +4291,7 @@
         <v>177</v>
       </c>
       <c r="C179" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4308,7 +4302,7 @@
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4319,7 +4313,7 @@
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4330,7 +4324,7 @@
         <v>180</v>
       </c>
       <c r="C182" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4341,7 +4335,7 @@
         <v>181</v>
       </c>
       <c r="C183" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4352,7 +4346,7 @@
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4395,7 +4389,7 @@
         <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4406,7 +4400,7 @@
         <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4425,7 +4419,7 @@
         <v>190</v>
       </c>
       <c r="C192" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4436,7 +4430,7 @@
         <v>191</v>
       </c>
       <c r="C193" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4447,7 +4441,7 @@
         <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4458,7 +4452,7 @@
         <v>193</v>
       </c>
       <c r="C195" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4469,7 +4463,7 @@
         <v>194</v>
       </c>
       <c r="C196" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4480,7 +4474,7 @@
         <v>195</v>
       </c>
       <c r="C197" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4491,7 +4485,7 @@
         <v>196</v>
       </c>
       <c r="C198" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4502,7 +4496,7 @@
         <v>197</v>
       </c>
       <c r="C199" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4513,7 +4507,7 @@
         <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4524,7 +4518,7 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4535,7 +4529,7 @@
         <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4546,7 +4540,7 @@
         <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4557,7 +4551,7 @@
         <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4568,7 +4562,7 @@
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4579,7 +4573,7 @@
         <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4590,7 +4584,7 @@
         <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4601,7 +4595,7 @@
         <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4612,7 +4606,7 @@
         <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4623,7 +4617,7 @@
         <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4634,7 +4628,7 @@
         <v>209</v>
       </c>
       <c r="C211" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4645,7 +4639,7 @@
         <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4656,7 +4650,7 @@
         <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4667,7 +4661,7 @@
         <v>212</v>
       </c>
       <c r="C214" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4678,7 +4672,7 @@
         <v>213</v>
       </c>
       <c r="C215" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4689,7 +4683,7 @@
         <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4700,7 +4694,7 @@
         <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4711,7 +4705,7 @@
         <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4722,7 +4716,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4733,7 +4727,7 @@
         <v>218</v>
       </c>
       <c r="C220" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4744,7 +4738,7 @@
         <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4755,7 +4749,7 @@
         <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4766,7 +4760,7 @@
         <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4777,7 +4771,7 @@
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4788,7 +4782,7 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4799,7 +4793,7 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4810,7 +4804,7 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4821,7 +4815,7 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4832,7 +4826,7 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4843,7 +4837,7 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5062,7 +5056,7 @@
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5073,7 +5067,7 @@
         <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5084,7 +5078,7 @@
         <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5095,7 +5089,7 @@
         <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5106,7 +5100,7 @@
         <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5117,7 +5111,7 @@
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5128,7 +5122,7 @@
         <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5139,7 +5133,7 @@
         <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5150,7 +5144,7 @@
         <v>263</v>
       </c>
       <c r="C265" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5161,7 +5155,7 @@
         <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5172,7 +5166,7 @@
         <v>265</v>
       </c>
       <c r="C267" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5183,7 +5177,7 @@
         <v>266</v>
       </c>
       <c r="C268" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5194,7 +5188,7 @@
         <v>267</v>
       </c>
       <c r="C269" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5205,7 +5199,7 @@
         <v>268</v>
       </c>
       <c r="C270" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5216,7 +5210,7 @@
         <v>269</v>
       </c>
       <c r="C271" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5379,7 +5373,7 @@
         <v>289</v>
       </c>
       <c r="C291" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5438,7 +5432,7 @@
         <v>296</v>
       </c>
       <c r="C298" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5449,7 +5443,7 @@
         <v>297</v>
       </c>
       <c r="C299" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5460,7 +5454,7 @@
         <v>298</v>
       </c>
       <c r="C300" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5471,7 +5465,7 @@
         <v>299</v>
       </c>
       <c r="C301" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5482,7 +5476,7 @@
         <v>300</v>
       </c>
       <c r="C302" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5573,7 +5567,7 @@
         <v>311</v>
       </c>
       <c r="C313" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5584,7 +5578,7 @@
         <v>312</v>
       </c>
       <c r="C314" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5595,7 +5589,7 @@
         <v>313</v>
       </c>
       <c r="C315" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5606,7 +5600,7 @@
         <v>314</v>
       </c>
       <c r="C316" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5617,7 +5611,7 @@
         <v>315</v>
       </c>
       <c r="C317" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5628,7 +5622,7 @@
         <v>316</v>
       </c>
       <c r="C318" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5639,7 +5633,7 @@
         <v>317</v>
       </c>
       <c r="C319" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5650,7 +5644,7 @@
         <v>318</v>
       </c>
       <c r="C320" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5661,7 +5655,7 @@
         <v>319</v>
       </c>
       <c r="C321" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5672,7 +5666,7 @@
         <v>320</v>
       </c>
       <c r="C322" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5683,7 +5677,7 @@
         <v>321</v>
       </c>
       <c r="C323" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5742,7 +5736,7 @@
         <v>328</v>
       </c>
       <c r="C330" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5777,7 +5771,7 @@
         <v>332</v>
       </c>
       <c r="C334" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5788,7 +5782,7 @@
         <v>333</v>
       </c>
       <c r="C335" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5807,7 +5801,7 @@
         <v>335</v>
       </c>
       <c r="C337" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5818,7 +5812,7 @@
         <v>336</v>
       </c>
       <c r="C338" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5837,7 +5831,7 @@
         <v>338</v>
       </c>
       <c r="C340" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5848,7 +5842,7 @@
         <v>339</v>
       </c>
       <c r="C341" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5867,7 +5861,7 @@
         <v>341</v>
       </c>
       <c r="C343" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5878,7 +5872,7 @@
         <v>342</v>
       </c>
       <c r="C344" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5897,7 +5891,7 @@
         <v>344</v>
       </c>
       <c r="C346" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5908,7 +5902,7 @@
         <v>345</v>
       </c>
       <c r="C347" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5927,7 +5921,7 @@
         <v>347</v>
       </c>
       <c r="C349" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5938,7 +5932,7 @@
         <v>348</v>
       </c>
       <c r="C350" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5957,7 +5951,7 @@
         <v>350</v>
       </c>
       <c r="C352" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5968,7 +5962,7 @@
         <v>351</v>
       </c>
       <c r="C353" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5995,7 +5989,7 @@
         <v>354</v>
       </c>
       <c r="C356" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6006,7 +6000,7 @@
         <v>355</v>
       </c>
       <c r="C357" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6017,7 +6011,7 @@
         <v>356</v>
       </c>
       <c r="C358" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6028,7 +6022,7 @@
         <v>357</v>
       </c>
       <c r="C359" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6039,7 +6033,7 @@
         <v>358</v>
       </c>
       <c r="C360" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6050,7 +6044,7 @@
         <v>359</v>
       </c>
       <c r="C361" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6061,7 +6055,7 @@
         <v>360</v>
       </c>
       <c r="C362" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6072,7 +6066,7 @@
         <v>361</v>
       </c>
       <c r="C363" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6083,7 +6077,7 @@
         <v>362</v>
       </c>
       <c r="C364" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6094,7 +6088,7 @@
         <v>363</v>
       </c>
       <c r="C365" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6105,7 +6099,7 @@
         <v>364</v>
       </c>
       <c r="C366" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6116,7 +6110,7 @@
         <v>365</v>
       </c>
       <c r="C367" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6127,7 +6121,7 @@
         <v>366</v>
       </c>
       <c r="C368" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6138,7 +6132,7 @@
         <v>367</v>
       </c>
       <c r="C369" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6149,7 +6143,7 @@
         <v>368</v>
       </c>
       <c r="C370" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6160,7 +6154,7 @@
         <v>369</v>
       </c>
       <c r="C371" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6171,7 +6165,7 @@
         <v>370</v>
       </c>
       <c r="C372" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6182,7 +6176,7 @@
         <v>371</v>
       </c>
       <c r="C373" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6193,7 +6187,7 @@
         <v>372</v>
       </c>
       <c r="C374" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6204,7 +6198,7 @@
         <v>373</v>
       </c>
       <c r="C375" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6215,7 +6209,7 @@
         <v>374</v>
       </c>
       <c r="C376" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6226,7 +6220,7 @@
         <v>375</v>
       </c>
       <c r="C377" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6237,7 +6231,7 @@
         <v>376</v>
       </c>
       <c r="C378" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6248,7 +6242,7 @@
         <v>377</v>
       </c>
       <c r="C379" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6259,7 +6253,7 @@
         <v>378</v>
       </c>
       <c r="C380" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6270,7 +6264,7 @@
         <v>379</v>
       </c>
       <c r="C381" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6281,7 +6275,7 @@
         <v>380</v>
       </c>
       <c r="C382" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6292,7 +6286,7 @@
         <v>381</v>
       </c>
       <c r="C383" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6303,7 +6297,7 @@
         <v>382</v>
       </c>
       <c r="C384" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6314,7 +6308,7 @@
         <v>383</v>
       </c>
       <c r="C385" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6333,7 +6327,7 @@
         <v>385</v>
       </c>
       <c r="C387" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6344,7 +6338,7 @@
         <v>386</v>
       </c>
       <c r="C388" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6355,7 +6349,7 @@
         <v>387</v>
       </c>
       <c r="C389" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6366,7 +6360,7 @@
         <v>388</v>
       </c>
       <c r="C390" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6377,7 +6371,7 @@
         <v>389</v>
       </c>
       <c r="C391" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6388,7 +6382,7 @@
         <v>390</v>
       </c>
       <c r="C392" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6399,7 +6393,7 @@
         <v>391</v>
       </c>
       <c r="C393" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6410,7 +6404,7 @@
         <v>392</v>
       </c>
       <c r="C394" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6421,7 +6415,7 @@
         <v>393</v>
       </c>
       <c r="C395" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6488,7 +6482,7 @@
         <v>401</v>
       </c>
       <c r="C403" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6499,7 +6493,7 @@
         <v>402</v>
       </c>
       <c r="C404" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6510,7 +6504,7 @@
         <v>403</v>
       </c>
       <c r="C405" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6521,7 +6515,7 @@
         <v>404</v>
       </c>
       <c r="C406" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6532,7 +6526,7 @@
         <v>405</v>
       </c>
       <c r="C407" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6543,7 +6537,7 @@
         <v>406</v>
       </c>
       <c r="C408" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6554,7 +6548,7 @@
         <v>407</v>
       </c>
       <c r="C409" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6565,7 +6559,7 @@
         <v>408</v>
       </c>
       <c r="C410" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6576,7 +6570,7 @@
         <v>409</v>
       </c>
       <c r="C411" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6587,7 +6581,7 @@
         <v>410</v>
       </c>
       <c r="C412" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6598,7 +6592,7 @@
         <v>411</v>
       </c>
       <c r="C413" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6609,7 +6603,7 @@
         <v>412</v>
       </c>
       <c r="C414" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6620,7 +6614,7 @@
         <v>413</v>
       </c>
       <c r="C415" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6631,7 +6625,7 @@
         <v>414</v>
       </c>
       <c r="C416" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6642,7 +6636,7 @@
         <v>415</v>
       </c>
       <c r="C417" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6653,7 +6647,7 @@
         <v>416</v>
       </c>
       <c r="C418" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6664,7 +6658,7 @@
         <v>417</v>
       </c>
       <c r="C419" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6675,7 +6669,7 @@
         <v>418</v>
       </c>
       <c r="C420" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6686,7 +6680,7 @@
         <v>419</v>
       </c>
       <c r="C421" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6697,7 +6691,7 @@
         <v>420</v>
       </c>
       <c r="C422" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6708,7 +6702,7 @@
         <v>421</v>
       </c>
       <c r="C423" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6719,7 +6713,7 @@
         <v>422</v>
       </c>
       <c r="C424" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6730,7 +6724,7 @@
         <v>423</v>
       </c>
       <c r="C425" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6741,7 +6735,7 @@
         <v>424</v>
       </c>
       <c r="C426" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6752,7 +6746,7 @@
         <v>425</v>
       </c>
       <c r="C427" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6763,7 +6757,7 @@
         <v>426</v>
       </c>
       <c r="C428" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6774,7 +6768,7 @@
         <v>427</v>
       </c>
       <c r="C429" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6785,7 +6779,7 @@
         <v>428</v>
       </c>
       <c r="C430" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6796,7 +6790,7 @@
         <v>429</v>
       </c>
       <c r="C431" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6927,7 +6921,7 @@
         <v>444</v>
       </c>
       <c r="C447" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6938,7 +6932,7 @@
         <v>445</v>
       </c>
       <c r="C448" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6949,7 +6943,7 @@
         <v>446</v>
       </c>
       <c r="C449" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6976,7 +6970,7 @@
         <v>449</v>
       </c>
       <c r="C452" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7067,7 +7061,7 @@
         <v>460</v>
       </c>
       <c r="C463" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7110,7 +7104,7 @@
         <v>465</v>
       </c>
       <c r="C468" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7129,7 +7123,7 @@
         <v>467</v>
       </c>
       <c r="C470" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7140,7 +7134,7 @@
         <v>468</v>
       </c>
       <c r="C471" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7151,7 +7145,7 @@
         <v>469</v>
       </c>
       <c r="C472" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7162,7 +7156,7 @@
         <v>470</v>
       </c>
       <c r="C473" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7173,7 +7167,7 @@
         <v>471</v>
       </c>
       <c r="C474" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7192,7 +7186,7 @@
         <v>473</v>
       </c>
       <c r="C476" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7203,7 +7197,7 @@
         <v>474</v>
       </c>
       <c r="C477" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -7222,7 +7216,7 @@
         <v>476</v>
       </c>
       <c r="C479" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7233,7 +7227,7 @@
         <v>477</v>
       </c>
       <c r="C480" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7276,7 +7270,7 @@
         <v>482</v>
       </c>
       <c r="C485" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7287,7 +7281,7 @@
         <v>483</v>
       </c>
       <c r="C486" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7306,7 +7300,7 @@
         <v>485</v>
       </c>
       <c r="C488" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7317,7 +7311,7 @@
         <v>486</v>
       </c>
       <c r="C489" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7328,7 +7322,7 @@
         <v>487</v>
       </c>
       <c r="C490" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7339,7 +7333,7 @@
         <v>488</v>
       </c>
       <c r="C491" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7350,7 +7344,7 @@
         <v>489</v>
       </c>
       <c r="C492" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7361,7 +7355,7 @@
         <v>490</v>
       </c>
       <c r="C493" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7372,7 +7366,7 @@
         <v>491</v>
       </c>
       <c r="C494" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7383,7 +7377,7 @@
         <v>492</v>
       </c>
       <c r="C495" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7394,7 +7388,7 @@
         <v>493</v>
       </c>
       <c r="C496" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7405,7 +7399,7 @@
         <v>494</v>
       </c>
       <c r="C497" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7416,7 +7410,7 @@
         <v>495</v>
       </c>
       <c r="C498" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7427,7 +7421,7 @@
         <v>496</v>
       </c>
       <c r="C499" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7438,7 +7432,7 @@
         <v>497</v>
       </c>
       <c r="C500" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7449,7 +7443,7 @@
         <v>498</v>
       </c>
       <c r="C501" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7460,7 +7454,7 @@
         <v>499</v>
       </c>
       <c r="C502" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7471,7 +7465,7 @@
         <v>500</v>
       </c>
       <c r="C503" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7482,7 +7476,7 @@
         <v>501</v>
       </c>
       <c r="C504" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7493,7 +7487,7 @@
         <v>502</v>
       </c>
       <c r="C505" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7504,7 +7498,7 @@
         <v>503</v>
       </c>
       <c r="C506" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7515,7 +7509,7 @@
         <v>504</v>
       </c>
       <c r="C507" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7526,7 +7520,7 @@
         <v>505</v>
       </c>
       <c r="C508" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7537,7 +7531,7 @@
         <v>506</v>
       </c>
       <c r="C509" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7548,7 +7542,7 @@
         <v>507</v>
       </c>
       <c r="C510" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7559,7 +7553,7 @@
         <v>508</v>
       </c>
       <c r="C511" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7570,7 +7564,7 @@
         <v>509</v>
       </c>
       <c r="C512" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7581,7 +7575,7 @@
         <v>510</v>
       </c>
       <c r="C513" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7592,7 +7586,7 @@
         <v>511</v>
       </c>
       <c r="C514" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7603,7 +7597,7 @@
         <v>512</v>
       </c>
       <c r="C515" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -7614,7 +7608,7 @@
         <v>513</v>
       </c>
       <c r="C516" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -7625,7 +7619,7 @@
         <v>514</v>
       </c>
       <c r="C517" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -7636,7 +7630,7 @@
         <v>515</v>
       </c>
       <c r="C518" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7647,7 +7641,7 @@
         <v>516</v>
       </c>
       <c r="C519" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -7658,7 +7652,7 @@
         <v>517</v>
       </c>
       <c r="C520" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -7669,7 +7663,7 @@
         <v>518</v>
       </c>
       <c r="C521" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -7680,7 +7674,7 @@
         <v>519</v>
       </c>
       <c r="C522" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -7691,7 +7685,7 @@
         <v>520</v>
       </c>
       <c r="C523" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -7702,7 +7696,7 @@
         <v>521</v>
       </c>
       <c r="C524" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -7713,7 +7707,7 @@
         <v>522</v>
       </c>
       <c r="C525" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -7724,7 +7718,7 @@
         <v>523</v>
       </c>
       <c r="C526" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -7735,7 +7729,7 @@
         <v>524</v>
       </c>
       <c r="C527" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -7746,7 +7740,7 @@
         <v>525</v>
       </c>
       <c r="C528" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -7757,7 +7751,7 @@
         <v>526</v>
       </c>
       <c r="C529" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -7768,7 +7762,7 @@
         <v>527</v>
       </c>
       <c r="C530" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
+++ b/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="783">
   <si>
     <t>Parcel Delivery</t>
   </si>
@@ -2240,9 +2240,6 @@
   </si>
   <si>
     <t>https://l2wiki.com/Crossing_Fate</t>
-  </si>
-  <si>
-    <t>https://l2wiki.com/Letters_from_the_Queen:_Dragon_Valley</t>
   </si>
   <si>
     <t>https://l2wiki.com/Strange_Things_Afoot_in_the_Valley</t>
@@ -2761,7 +2758,7 @@
         <v>529</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
@@ -2772,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
         <v>530</v>
@@ -2787,7 +2784,7 @@
       </c>
       <c r="D3" s="5">
         <f>(D2*100)/529</f>
-        <v>52.362948960302461</v>
+        <v>52.551984877126657</v>
       </c>
       <c r="E3" t="s">
         <v>531</v>
@@ -7315,14 +7312,11 @@
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="A490" s="1">
+      <c r="A490" s="3">
         <v>10798</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="B490" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C490" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7333,7 +7327,7 @@
         <v>488</v>
       </c>
       <c r="C491" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7344,7 +7338,7 @@
         <v>489</v>
       </c>
       <c r="C492" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7355,7 +7349,7 @@
         <v>490</v>
       </c>
       <c r="C493" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7366,7 +7360,7 @@
         <v>491</v>
       </c>
       <c r="C494" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7377,7 +7371,7 @@
         <v>492</v>
       </c>
       <c r="C495" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7388,7 +7382,7 @@
         <v>493</v>
       </c>
       <c r="C496" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7399,7 +7393,7 @@
         <v>494</v>
       </c>
       <c r="C497" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7410,7 +7404,7 @@
         <v>495</v>
       </c>
       <c r="C498" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7421,7 +7415,7 @@
         <v>496</v>
       </c>
       <c r="C499" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7432,7 +7426,7 @@
         <v>497</v>
       </c>
       <c r="C500" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7443,7 +7437,7 @@
         <v>498</v>
       </c>
       <c r="C501" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7454,7 +7448,7 @@
         <v>499</v>
       </c>
       <c r="C502" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7465,7 +7459,7 @@
         <v>500</v>
       </c>
       <c r="C503" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7476,7 +7470,7 @@
         <v>501</v>
       </c>
       <c r="C504" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7487,7 +7481,7 @@
         <v>502</v>
       </c>
       <c r="C505" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7498,7 +7492,7 @@
         <v>503</v>
       </c>
       <c r="C506" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7509,7 +7503,7 @@
         <v>504</v>
       </c>
       <c r="C507" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7520,7 +7514,7 @@
         <v>505</v>
       </c>
       <c r="C508" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7531,7 +7525,7 @@
         <v>506</v>
       </c>
       <c r="C509" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7542,7 +7536,7 @@
         <v>507</v>
       </c>
       <c r="C510" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7553,7 +7547,7 @@
         <v>508</v>
       </c>
       <c r="C511" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7564,7 +7558,7 @@
         <v>509</v>
       </c>
       <c r="C512" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7575,7 +7569,7 @@
         <v>510</v>
       </c>
       <c r="C513" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7586,7 +7580,7 @@
         <v>511</v>
       </c>
       <c r="C514" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7597,7 +7591,7 @@
         <v>512</v>
       </c>
       <c r="C515" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -7608,7 +7602,7 @@
         <v>513</v>
       </c>
       <c r="C516" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -7619,7 +7613,7 @@
         <v>514</v>
       </c>
       <c r="C517" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -7630,7 +7624,7 @@
         <v>515</v>
       </c>
       <c r="C518" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7641,7 +7635,7 @@
         <v>516</v>
       </c>
       <c r="C519" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -7652,7 +7646,7 @@
         <v>517</v>
       </c>
       <c r="C520" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -7663,7 +7657,7 @@
         <v>518</v>
       </c>
       <c r="C521" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -7674,7 +7668,7 @@
         <v>519</v>
       </c>
       <c r="C522" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -7685,7 +7679,7 @@
         <v>520</v>
       </c>
       <c r="C523" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -7696,7 +7690,7 @@
         <v>521</v>
       </c>
       <c r="C524" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -7707,7 +7701,7 @@
         <v>522</v>
       </c>
       <c r="C525" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -7718,7 +7712,7 @@
         <v>523</v>
       </c>
       <c r="C526" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -7729,7 +7723,7 @@
         <v>524</v>
       </c>
       <c r="C527" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -7740,7 +7734,7 @@
         <v>525</v>
       </c>
       <c r="C528" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -7751,7 +7745,7 @@
         <v>526</v>
       </c>
       <c r="C529" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -7762,7 +7756,7 @@
         <v>527</v>
       </c>
       <c r="C530" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
+++ b/trunk/dist/game/data/scripts/quests/QuestsToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="782">
   <si>
     <t>Parcel Delivery</t>
   </si>
@@ -2240,9 +2240,6 @@
   </si>
   <si>
     <t>https://l2wiki.com/Crossing_Fate</t>
-  </si>
-  <si>
-    <t>https://l2wiki.com/Strange_Things_Afoot_in_the_Valley</t>
   </si>
   <si>
     <t>https://l2wiki.com/Reconnaissance_at_Dragon_Valley</t>
@@ -2758,7 +2755,7 @@
         <v>529</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
@@ -2769,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
         <v>530</v>
@@ -2784,7 +2781,7 @@
       </c>
       <c r="D3" s="5">
         <f>(D2*100)/529</f>
-        <v>52.551984877126657</v>
+        <v>52.741020793950852</v>
       </c>
       <c r="E3" t="s">
         <v>531</v>
@@ -7320,14 +7317,11 @@
       </c>
     </row>
     <row r="491" spans="1:3">
-      <c r="A491" s="1">
+      <c r="A491" s="3">
         <v>10799</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="B491" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C491" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7338,7 +7332,7 @@
         <v>489</v>
       </c>
       <c r="C492" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7349,7 +7343,7 @@
         <v>490</v>
       </c>
       <c r="C493" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7360,7 +7354,7 @@
         <v>491</v>
       </c>
       <c r="C494" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7371,7 +7365,7 @@
         <v>492</v>
       </c>
       <c r="C495" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7382,7 +7376,7 @@
         <v>493</v>
       </c>
       <c r="C496" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7393,7 +7387,7 @@
         <v>494</v>
       </c>
       <c r="C497" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7404,7 +7398,7 @@
         <v>495</v>
       </c>
       <c r="C498" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7415,7 +7409,7 @@
         <v>496</v>
       </c>
       <c r="C499" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7426,7 +7420,7 @@
         <v>497</v>
       </c>
       <c r="C500" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7437,7 +7431,7 @@
         <v>498</v>
       </c>
       <c r="C501" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7448,7 +7442,7 @@
         <v>499</v>
       </c>
       <c r="C502" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7459,7 +7453,7 @@
         <v>500</v>
       </c>
       <c r="C503" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7470,7 +7464,7 @@
         <v>501</v>
       </c>
       <c r="C504" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7481,7 +7475,7 @@
         <v>502</v>
       </c>
       <c r="C505" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7492,7 +7486,7 @@
         <v>503</v>
       </c>
       <c r="C506" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7503,7 +7497,7 @@
         <v>504</v>
       </c>
       <c r="C507" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7514,7 +7508,7 @@
         <v>505</v>
       </c>
       <c r="C508" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7525,7 +7519,7 @@
         <v>506</v>
       </c>
       <c r="C509" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7536,7 +7530,7 @@
         <v>507</v>
       </c>
       <c r="C510" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7547,7 +7541,7 @@
         <v>508</v>
       </c>
       <c r="C511" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7558,7 +7552,7 @@
         <v>509</v>
       </c>
       <c r="C512" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7569,7 +7563,7 @@
         <v>510</v>
       </c>
       <c r="C513" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7580,7 +7574,7 @@
         <v>511</v>
       </c>
       <c r="C514" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7591,7 +7585,7 @@
         <v>512</v>
       </c>
       <c r="C515" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -7602,7 +7596,7 @@
         <v>513</v>
       </c>
       <c r="C516" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -7613,7 +7607,7 @@
         <v>514</v>
       </c>
       <c r="C517" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -7624,7 +7618,7 @@
         <v>515</v>
       </c>
       <c r="C518" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7635,7 +7629,7 @@
         <v>516</v>
       </c>
       <c r="C519" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -7646,7 +7640,7 @@
         <v>517</v>
       </c>
       <c r="C520" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -7657,7 +7651,7 @@
         <v>518</v>
       </c>
       <c r="C521" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -7668,7 +7662,7 @@
         <v>519</v>
       </c>
       <c r="C522" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -7679,7 +7673,7 @@
         <v>520</v>
       </c>
       <c r="C523" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -7690,7 +7684,7 @@
         <v>521</v>
       </c>
       <c r="C524" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -7701,7 +7695,7 @@
         <v>522</v>
       </c>
       <c r="C525" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -7712,7 +7706,7 @@
         <v>523</v>
       </c>
       <c r="C526" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -7723,7 +7717,7 @@
         <v>524</v>
       </c>
       <c r="C527" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -7734,7 +7728,7 @@
         <v>525</v>
       </c>
       <c r="C528" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -7745,7 +7739,7 @@
         <v>526</v>
       </c>
       <c r="C529" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -7756,7 +7750,7 @@
         <v>527</v>
       </c>
       <c r="C530" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
